--- a/src/main/resources/cadre.xlsx
+++ b/src/main/resources/cadre.xlsx
@@ -32,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,6 +51,10 @@
   </si>
   <si>
     <t>副校长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在单位及职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +458,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -482,13 +482,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -496,19 +496,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
